--- a/Test/BO/MSE_100.xlsx
+++ b/Test/BO/MSE_100.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0555724698697286</v>
+        <v>0.01532277844479209</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0376705657853562</v>
+        <v>0.03541021981846883</v>
       </c>
       <c r="C1" t="n">
-        <v>0.01529963803303858</v>
+        <v>0.01118847734510776</v>
       </c>
       <c r="D1" t="n">
-        <v>0.05594937559619854</v>
+        <v>0.03340960203887441</v>
       </c>
       <c r="E1" t="n">
-        <v>0.01503840535640948</v>
+        <v>0.01923039931533147</v>
       </c>
       <c r="F1" t="n">
-        <v>0.05919900552137488</v>
+        <v>0.02351466525001549</v>
       </c>
       <c r="G1" t="n">
-        <v>0.02882996293124819</v>
+        <v>0.01719761643828711</v>
       </c>
       <c r="H1" t="n">
-        <v>0.01513089110832876</v>
+        <v>0.02789575185137957</v>
       </c>
       <c r="I1" t="n">
-        <v>0.06649697713225819</v>
+        <v>0.05615662816061242</v>
       </c>
       <c r="J1" t="n">
-        <v>0.04043176957835554</v>
+        <v>0.01323261667272007</v>
       </c>
     </row>
   </sheetData>
